--- a/Project development phase/User acceptance testing/Testcases Report.xlsx
+++ b/Project development phase/User acceptance testing/Testcases Report.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DDE4F66-9EA4-4BEE-956D-A098E43365D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494006AD-2753-4034-AC50-5CB21D5C523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11436" yWindow="660" windowWidth="12996" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopenzer Testcases" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
     <t>BUG  12345</t>
   </si>
   <si>
-    <t xml:space="preserve">PNT2022TMID00784
+    <t xml:space="preserve">PNT2022TMID21439
 </t>
   </si>
 </sst>
@@ -454,6 +454,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -480,9 +483,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2095,111 +2095,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:N4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F1" s="12">
         <v>44882</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-    </row>
-    <row r="2" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" s="7" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" s="7" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -2483,59 +2483,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="4"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H31" s="5"/>
     </row>
   </sheetData>
@@ -2566,17 +2566,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="102.7109375" customWidth="1"/>
+    <col min="2" max="2" width="102.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2616,12 +2616,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
